--- a/BAOdev/OntoRatInputFiles/assay_footprint_dev.xlsx
+++ b/BAOdev/OntoRatInputFiles/assay_footprint_dev.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="700" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="assay footprint" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>Term ID</t>
   </si>
@@ -121,6 +121,27 @@
   </si>
   <si>
     <t>tube</t>
+  </si>
+  <si>
+    <t>coverslip</t>
+  </si>
+  <si>
+    <t>Coverslips are typically thin square pieces of glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-well </t>
+  </si>
+  <si>
+    <t>microplate</t>
+  </si>
+  <si>
+    <t>BAO_00100021</t>
+  </si>
+  <si>
+    <t>BAO_00100022</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0000508</t>
   </si>
 </sst>
 </file>
@@ -203,7 +224,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -233,6 +254,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -566,16 +592,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="4" width="11" style="1"/>
-    <col min="5" max="5" width="31.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="47" style="1" customWidth="1"/>
     <col min="6" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
@@ -840,6 +866,54 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
+    <row r="11" spans="1:20" ht="90">
+      <c r="A11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>1219</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11" s="18">
+        <v>42553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <v>602291</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12" s="17"/>
+      <c r="H12"/>
+      <c r="I12" s="18">
+        <v>42573</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E5" location="BAO_0000512" display="http://www.bioassayontology.org/bao#BAO_0000512"/>
@@ -851,6 +925,8 @@
     <hyperlink ref="E8" r:id="rId3" location="BAO_0000512"/>
     <hyperlink ref="E9" r:id="rId4" location="BAO_00100018"/>
     <hyperlink ref="E10" r:id="rId5" location="BAO_00100018"/>
+    <hyperlink ref="E11" location="BAO_0000512" display="http://www.bioassayontology.org/bao#BAO_0000512"/>
+    <hyperlink ref="E12" r:id="rId6" location="BAO_0000508"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
